--- a/Data_science_outputs/200pop/avg_analysis/avg_analysis_3.xlsx
+++ b/Data_science_outputs/200pop/avg_analysis/avg_analysis_3.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5530.097730795276</v>
+        <v>4041.924321666666</v>
       </c>
       <c r="C3" t="n">
         <v>3266.109900601857</v>
       </c>
       <c r="D3" t="n">
-        <v>1772.763174461566</v>
+        <v>271.2254994101976</v>
       </c>
       <c r="E3" t="n">
         <v>511.4768157648392</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1937.004920018178</v>
+        <v>1693.339467015477</v>
       </c>
       <c r="C4" t="n">
         <v>1567.193687127353</v>
       </c>
       <c r="D4" t="n">
-        <v>1547.043604112536</v>
+        <v>93.9815526326003</v>
       </c>
       <c r="E4" t="n">
         <v>216.0260526988991</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1329.871232876712</v>
+        <v>1390.186172602739</v>
       </c>
       <c r="C5" t="n">
         <v>925.370166666667</v>
       </c>
       <c r="D5" t="n">
-        <v>77.30170136986308</v>
+        <v>94.74842465753429</v>
       </c>
       <c r="E5" t="n">
         <v>165.7509041095888</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3466.366322602743</v>
+        <v>2769.910641780824</v>
       </c>
       <c r="C6" t="n">
         <v>2097.528775</v>
       </c>
       <c r="D6" t="n">
-        <v>201.8874623287667</v>
+        <v>185.0059212328762</v>
       </c>
       <c r="E6" t="n">
         <v>310.0789178082192</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5890.041263013692</v>
+        <v>3451.0174630137</v>
       </c>
       <c r="C7" t="n">
         <v>2580.006066666667</v>
       </c>
       <c r="D7" t="n">
-        <v>1787.746679452056</v>
+        <v>273.8044246575339</v>
       </c>
       <c r="E7" t="n">
         <v>522.3967561643823</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6836.729939041094</v>
+        <v>5580.952449315071</v>
       </c>
       <c r="C8" t="n">
         <v>4633.430225000002</v>
       </c>
       <c r="D8" t="n">
-        <v>3434.40069520548</v>
+        <v>357.5890547945205</v>
       </c>
       <c r="E8" t="n">
         <v>689.4256089041078</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8745.974180821917</v>
+        <v>7444.770926027398</v>
       </c>
       <c r="C9" t="n">
         <v>6754.75116666667</v>
       </c>
       <c r="D9" t="n">
-        <v>3511.254202739729</v>
+        <v>432.2652630136973</v>
       </c>
       <c r="E9" t="n">
         <v>1010.480594520545</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>7963340.732345207</v>
+        <v>5820371.023200002</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>4703198.256866667</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5869440104998089</v>
+        <v>0.8063540400844781</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>2552778.971224657</v>
+        <v>390564.7191506845</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3205663372980981</v>
+        <v>0.06710306226078945</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>736526.6147013681</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09248965220209293</v>
+        <v>0.1265428976547325</v>
       </c>
     </row>
   </sheetData>
